--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/metrics/Trial_392__Reeval_Taguchi_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/metrics/Trial_392__Reeval_Taguchi_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5407,7 +5407,7 @@
                   <c:v>355.8806457519531</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>357.8023681640625</c:v>
+                  <c:v>357.8023986816406</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>353.2388610839844</c:v>
@@ -5437,7 +5437,7 @@
                   <c:v>357.6051940917969</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>355.4125061035156</c:v>
+                  <c:v>355.4125366210938</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>357.4287719726562</c:v>
@@ -5461,7 +5461,7 @@
                   <c:v>345.6566467285156</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>356.3981018066406</c:v>
+                  <c:v>356.3981323242188</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>340.6876831054688</c:v>
@@ -5476,7 +5476,7 @@
                   <c:v>359.670166015625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>335.6787414550781</c:v>
+                  <c:v>335.6787719726562</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>354.8448486328125</c:v>
@@ -5515,7 +5515,7 @@
                   <c:v>349.061767578125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>346.3017883300781</c:v>
+                  <c:v>346.3017578125</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>353.8454895019531</c:v>
@@ -5645,7 +5645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5660,7 +5660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5689,7 +5689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5704,7 +5704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5733,7 +5733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5748,7 +5748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6260,13 +6260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:S712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6291,8 +6291,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.54</v>
       </c>
@@ -6317,8 +6323,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.305</v>
       </c>
@@ -6338,13 +6350,19 @@
         <v>359.5972900390625</v>
       </c>
       <c r="G3">
+        <v>371</v>
+      </c>
+      <c r="H3">
+        <v>371</v>
+      </c>
+      <c r="R3">
         <v>368</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>361.741</v>
       </c>
@@ -6364,13 +6382,19 @@
         <v>357.8966064453125</v>
       </c>
       <c r="G4">
+        <v>371</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>368</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>338.792</v>
       </c>
@@ -6390,13 +6414,19 @@
         <v>357.0116271972656</v>
       </c>
       <c r="G5">
+        <v>371</v>
+      </c>
+      <c r="H5">
+        <v>371</v>
+      </c>
+      <c r="R5">
         <v>368</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>353.734</v>
       </c>
@@ -6416,13 +6446,19 @@
         <v>363.4288024902344</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>371</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>368</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>363.503</v>
       </c>
@@ -6442,13 +6478,19 @@
         <v>355.2693176269531</v>
       </c>
       <c r="G7">
+        <v>371</v>
+      </c>
+      <c r="H7">
+        <v>371</v>
+      </c>
+      <c r="R7">
         <v>368</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>360.226</v>
       </c>
@@ -6468,7 +6510,7 @@
         <v>344.5222778320312</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>359.146</v>
       </c>
@@ -6488,7 +6530,7 @@
         <v>353.2233581542969</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>358.977</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>337.5639953613281</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>330.382</v>
       </c>
@@ -6528,7 +6570,7 @@
         <v>355.7060852050781</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.115</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>360.6777954101562</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>358.917</v>
       </c>
@@ -6568,7 +6610,7 @@
         <v>355.4307861328125</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.516</v>
       </c>
@@ -6588,7 +6630,7 @@
         <v>356.2947692871094</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>355.69</v>
       </c>
@@ -6608,7 +6650,7 @@
         <v>350.8241882324219</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>355.401</v>
       </c>
@@ -6705,7 +6747,7 @@
         <v>360.348</v>
       </c>
       <c r="F20">
-        <v>357.8023681640625</v>
+        <v>357.8023986816406</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6905,7 +6947,7 @@
         <v>355.462</v>
       </c>
       <c r="F30">
-        <v>355.4125061035156</v>
+        <v>355.4125366210938</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7065,7 +7107,7 @@
         <v>359.19</v>
       </c>
       <c r="F38">
-        <v>356.3981018066406</v>
+        <v>356.3981323242188</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7165,7 +7207,7 @@
         <v>337.824</v>
       </c>
       <c r="F43">
-        <v>335.6787414550781</v>
+        <v>335.6787719726562</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7425,7 +7467,7 @@
         <v>351.505</v>
       </c>
       <c r="F56">
-        <v>346.3017883300781</v>
+        <v>346.3017578125</v>
       </c>
     </row>
     <row r="57" spans="1:6">
